--- a/spliced/falling/2023-03-25_18-03-19/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-19/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-3.930359029769903</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.46818006038666</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7.359129667282104</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-4.541467189788817</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-19/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-19/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.03490149974823</v>
+        <v>-2.872348141670227</v>
       </c>
       <c r="B2" t="n">
-        <v>8.900234460830688</v>
+        <v>9.113740730285643</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.314584940671921</v>
+        <v>-1.157746517658234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.981666660308838</v>
+        <v>-2.973343849182129</v>
       </c>
       <c r="B3" t="n">
-        <v>8.602373123168945</v>
+        <v>9.098371124267578</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.842280006408692</v>
+        <v>-1.108406949043274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.369193434715273</v>
+        <v>-3.070270323753357</v>
       </c>
       <c r="B4" t="n">
-        <v>7.965732479095457</v>
+        <v>9.036239910125733</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.964559459686284</v>
+        <v>-1.239402884244919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.835544395446778</v>
+        <v>-3.125558137893677</v>
       </c>
       <c r="B5" t="n">
-        <v>7.139311599731442</v>
+        <v>8.97771692276001</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.718908405303957</v>
+        <v>-1.272288262844086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.949358296394353</v>
+        <v>-3.148761796951294</v>
       </c>
       <c r="B6" t="n">
-        <v>6.115968346595764</v>
+        <v>8.941205215454101</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.519280028343203</v>
+        <v>-1.218037897348404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.036023616790772</v>
+        <v>-3.052603721618652</v>
       </c>
       <c r="B7" t="n">
-        <v>5.773025989532471</v>
+        <v>8.98315830230713</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.258669376373291</v>
+        <v>-1.222838401794433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.327067399024963</v>
+        <v>-3.015902495384216</v>
       </c>
       <c r="B8" t="n">
-        <v>5.096813631057738</v>
+        <v>9.072346258163453</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.893664145469667</v>
+        <v>-1.212291812896728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.896905612945559</v>
+        <v>-3.051667261123657</v>
       </c>
       <c r="B9" t="n">
-        <v>2.338003730773914</v>
+        <v>9.041837882995607</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.030807352066033</v>
+        <v>-1.251752722263336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.743859815597524</v>
+        <v>-3.03490149974823</v>
       </c>
       <c r="B10" t="n">
-        <v>8.946796488761919</v>
+        <v>8.900234460830688</v>
       </c>
       <c r="C10" t="n">
-        <v>5.909892201423672</v>
+        <v>-1.314584940671921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.42204113006592</v>
+        <v>-2.981666660308838</v>
       </c>
       <c r="B11" t="n">
-        <v>18.078337097168</v>
+        <v>8.602373123168945</v>
       </c>
       <c r="C11" t="n">
-        <v>5.143125724792469</v>
+        <v>-1.842280006408692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.667438387870793</v>
+        <v>-3.369193434715273</v>
       </c>
       <c r="B12" t="n">
-        <v>5.428582191467266</v>
+        <v>7.965732479095457</v>
       </c>
       <c r="C12" t="n">
-        <v>1.3269031047821</v>
+        <v>-2.964559459686284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7794665813445962</v>
+        <v>-3.835544395446778</v>
       </c>
       <c r="B13" t="n">
-        <v>4.995001316070575</v>
+        <v>7.139311599731442</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.324089527130142</v>
+        <v>-4.718908405303957</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.068378543853783</v>
+        <v>-3.949358296394353</v>
       </c>
       <c r="B14" t="n">
-        <v>7.068177723884584</v>
+        <v>6.115968346595764</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.896264028549195</v>
+        <v>-5.519280028343203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.911060714721674</v>
+        <v>-6.036023616790772</v>
       </c>
       <c r="B15" t="n">
-        <v>7.258105087280274</v>
+        <v>5.773025989532471</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.906297397613526</v>
+        <v>-6.258669376373291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.277458310127258</v>
+        <v>-5.327067399024963</v>
       </c>
       <c r="B16" t="n">
-        <v>7.035428524017331</v>
+        <v>5.096813631057738</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.093589890003198</v>
+        <v>-6.893664145469667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.418862581253053</v>
+        <v>-5.896905612945559</v>
       </c>
       <c r="B17" t="n">
-        <v>6.974825143814088</v>
+        <v>2.338003730773914</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.04072964191437</v>
+        <v>-5.030807352066033</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.381656622886657</v>
+        <v>-1.743859815597524</v>
       </c>
       <c r="B18" t="n">
-        <v>7.120937466621399</v>
+        <v>8.946796488761919</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.581331634521484</v>
+        <v>5.909892201423672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.801538753509521</v>
+        <v>-1.42204113006592</v>
       </c>
       <c r="B19" t="n">
-        <v>7.392663955688477</v>
+        <v>18.078337097168</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.599455451965333</v>
+        <v>5.143125724792469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.732593083381657</v>
+        <v>1.667438387870793</v>
       </c>
       <c r="B20" t="n">
-        <v>7.733071899414061</v>
+        <v>5.428582191467266</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.365746712684627</v>
+        <v>1.3269031047821</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.7794665813445962</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.995001316070575</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.324089527130142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.068378543853783</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.068177723884584</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.896264028549195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.911060714721674</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7.258105087280274</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.906297397613526</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.277458310127258</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.035428524017331</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.093589890003198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.418862581253053</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.974825143814088</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.04072964191437</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.381656622886657</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.120937466621399</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.581331634521484</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.801538753509521</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.392663955688477</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.599455451965333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.732593083381657</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.733071899414061</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.365746712684627</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>3.0636076927185</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>7.479286289215088</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>-3.930359029769903</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.46818006038666</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.359129667282104</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.541467189788817</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.081884574890136</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.212435054779053</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.413347625732421</v>
       </c>
     </row>
   </sheetData>
